--- a/_datos_iniciales/pruebas/16_calificacion_cualtativa.xlsx
+++ b/_datos_iniciales/pruebas/16_calificacion_cualtativa.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -19,7 +19,10 @@
     <t>nombre</t>
   </si>
   <si>
-    <t>valor_numerico</t>
+    <t>valor_minimo</t>
+  </si>
+  <si>
+    <t>valor_maximo</t>
   </si>
   <si>
     <t>Deficiente</t>
@@ -301,16 +304,22 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.99</v>
       </c>
     </row>
     <row r="3">
@@ -318,10 +327,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.99</v>
       </c>
     </row>
     <row r="4">
@@ -329,10 +341,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.99</v>
       </c>
     </row>
     <row r="5">
@@ -340,10 +355,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.99</v>
       </c>
     </row>
     <row r="6">
@@ -351,9 +369,12 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D6" s="1">
         <v>5.0</v>
       </c>
     </row>
